--- a/biology/Botanique/Artabotrys_dielsianus/Artabotrys_dielsianus.xlsx
+++ b/biology/Botanique/Artabotrys_dielsianus/Artabotrys_dielsianus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Artabotrys dielsianus Le Thomas [2] est une espèce de lianes ligneuses de la famille des Annonaceae et du genre Artabotrys, selon la classification phylogénétique. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Artabotrys dielsianus Le Thomas  est une espèce de lianes ligneuses de la famille des Annonaceae et du genre Artabotrys, selon la classification phylogénétique. 
 Son épithète spécifique rend hommage au botaniste allemand Ludwig Diels.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Très rare, elle est endémique du Cameroun, où elle a été collectée à Bipindi, dans la Région du Sud[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Très rare, elle est endémique du Cameroun, où elle a été collectée à Bipindi, dans la Région du Sud.
 </t>
         </is>
       </c>
